--- a/data/horarios-11-04.processed.xlsx
+++ b/data/horarios-11-04.processed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F389104-3CCE-48FB-9EA2-4E3605D91A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5114B6DC-2118-4FF1-AEBD-AB47753D2BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3162,7 +3162,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A268EB5-7AC7-40B3-9B02-EC78E3B4C4F1}" name="Table1" displayName="Table1" ref="A1:Q1055" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:Q1055" xr:uid="{9A268EB5-7AC7-40B3-9B02-EC78E3B4C4F1}"/>
+  <autoFilter ref="A1:Q1055" xr:uid="{9A268EB5-7AC7-40B3-9B02-EC78E3B4C4F1}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="111551"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{EFFD1D3A-295B-4E49-BF3F-3EB47863ABBF}" name="ciclo"/>
     <tableColumn id="2" xr3:uid="{368D755C-5A57-4A24-BC79-B9940D8F7DD8}" name="escuela"/>
@@ -3427,8 +3433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1055"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="N979" sqref="N979"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E532" sqref="E445:E532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3505,7 +3511,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3550,7 +3556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3595,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3640,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3685,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3730,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3775,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3820,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3865,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3910,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3955,7 +3961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4000,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4045,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -4090,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -4135,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -4180,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -4225,7 +4231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -4270,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -4315,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -4360,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -4405,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -4450,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -4495,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -4540,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -4585,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -4630,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -4675,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -4720,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -4765,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -4810,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
       </c>
@@ -4855,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -4900,7 +4906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -4945,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -4990,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1</v>
       </c>
@@ -5035,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -5080,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -5125,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
@@ -5170,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1</v>
       </c>
@@ -5215,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1</v>
       </c>
@@ -5260,7 +5266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1</v>
       </c>
@@ -5305,7 +5311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -5350,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -5395,7 +5401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -5440,7 +5446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
@@ -5485,7 +5491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -5530,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1</v>
       </c>
@@ -5575,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1</v>
       </c>
@@ -5620,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1</v>
       </c>
@@ -5665,7 +5671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1</v>
       </c>
@@ -5710,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1</v>
       </c>
@@ -5755,7 +5761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1</v>
       </c>
@@ -5800,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1</v>
       </c>
@@ -5845,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1</v>
       </c>
@@ -5890,7 +5896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
@@ -5935,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1</v>
       </c>
@@ -5980,7 +5986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1</v>
       </c>
@@ -6025,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
@@ -6070,7 +6076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -6115,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1</v>
       </c>
@@ -6160,7 +6166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1</v>
       </c>
@@ -6205,7 +6211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3</v>
       </c>
@@ -6250,7 +6256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>3</v>
       </c>
@@ -6295,7 +6301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3</v>
       </c>
@@ -6340,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>3</v>
       </c>
@@ -6385,7 +6391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>3</v>
       </c>
@@ -6430,7 +6436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>3</v>
       </c>
@@ -6475,7 +6481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3</v>
       </c>
@@ -6520,7 +6526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>3</v>
       </c>
@@ -6565,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>3</v>
       </c>
@@ -6610,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>3</v>
       </c>
@@ -6655,7 +6661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>3</v>
       </c>
@@ -6700,7 +6706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>3</v>
       </c>
@@ -6745,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>3</v>
       </c>
@@ -6790,7 +6796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>3</v>
       </c>
@@ -6835,7 +6841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>3</v>
       </c>
@@ -6880,7 +6886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>3</v>
       </c>
@@ -6925,7 +6931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>3</v>
       </c>
@@ -6970,7 +6976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>3</v>
       </c>
@@ -7015,7 +7021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>3</v>
       </c>
@@ -7060,7 +7066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>3</v>
       </c>
@@ -7105,7 +7111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>3</v>
       </c>
@@ -7150,7 +7156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>3</v>
       </c>
@@ -7195,7 +7201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>3</v>
       </c>
@@ -7240,7 +7246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>3</v>
       </c>
@@ -7285,7 +7291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>3</v>
       </c>
@@ -7330,7 +7336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>3</v>
       </c>
@@ -7375,7 +7381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>3</v>
       </c>
@@ -7420,7 +7426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>3</v>
       </c>
@@ -7465,7 +7471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>3</v>
       </c>
@@ -7510,7 +7516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>3</v>
       </c>
@@ -7555,7 +7561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>3</v>
       </c>
@@ -7600,7 +7606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>5</v>
       </c>
@@ -7645,7 +7651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>5</v>
       </c>
@@ -7690,7 +7696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>5</v>
       </c>
@@ -7735,7 +7741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>5</v>
       </c>
@@ -7780,7 +7786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>5</v>
       </c>
@@ -7825,7 +7831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>5</v>
       </c>
@@ -7870,7 +7876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>5</v>
       </c>
@@ -7915,7 +7921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>5</v>
       </c>
@@ -7960,7 +7966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>5</v>
       </c>
@@ -8005,7 +8011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>5</v>
       </c>
@@ -8050,7 +8056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>5</v>
       </c>
@@ -8095,7 +8101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>5</v>
       </c>
@@ -8140,7 +8146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>5</v>
       </c>
@@ -8185,7 +8191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>5</v>
       </c>
@@ -8230,7 +8236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>5</v>
       </c>
@@ -8275,7 +8281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>5</v>
       </c>
@@ -8320,7 +8326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>5</v>
       </c>
@@ -8365,7 +8371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>5</v>
       </c>
@@ -8410,7 +8416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>5</v>
       </c>
@@ -8455,7 +8461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>5</v>
       </c>
@@ -8500,7 +8506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>5</v>
       </c>
@@ -8545,7 +8551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>5</v>
       </c>
@@ -8590,7 +8596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>5</v>
       </c>
@@ -8635,7 +8641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>5</v>
       </c>
@@ -8680,7 +8686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>5</v>
       </c>
@@ -8725,7 +8731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>5</v>
       </c>
@@ -8770,7 +8776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>5</v>
       </c>
@@ -8815,7 +8821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>5</v>
       </c>
@@ -8860,7 +8866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>5</v>
       </c>
@@ -8905,7 +8911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>5</v>
       </c>
@@ -8950,7 +8956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>5</v>
       </c>
@@ -8995,7 +9001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>5</v>
       </c>
@@ -9040,7 +9046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>5</v>
       </c>
@@ -9085,7 +9091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>5</v>
       </c>
@@ -9130,7 +9136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>5</v>
       </c>
@@ -9175,7 +9181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>5</v>
       </c>
@@ -9220,7 +9226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>5</v>
       </c>
@@ -9265,7 +9271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>5</v>
       </c>
@@ -9310,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>5</v>
       </c>
@@ -9355,7 +9361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>5</v>
       </c>
@@ -9400,7 +9406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>5</v>
       </c>
@@ -9445,7 +9451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>5</v>
       </c>
@@ -9490,7 +9496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>5</v>
       </c>
@@ -9535,7 +9541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>5</v>
       </c>
@@ -9580,7 +9586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>5</v>
       </c>
@@ -9625,7 +9631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>5</v>
       </c>
@@ -9670,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>5</v>
       </c>
@@ -9715,7 +9721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>5</v>
       </c>
@@ -9760,7 +9766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>5</v>
       </c>
@@ -9805,7 +9811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>5</v>
       </c>
@@ -9850,7 +9856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>5</v>
       </c>
@@ -9895,7 +9901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>5</v>
       </c>
@@ -9940,7 +9946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>5</v>
       </c>
@@ -9985,7 +9991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>5</v>
       </c>
@@ -10030,7 +10036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>5</v>
       </c>
@@ -10075,7 +10081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>7</v>
       </c>
@@ -10120,7 +10126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>7</v>
       </c>
@@ -10165,7 +10171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>7</v>
       </c>
@@ -10210,7 +10216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>7</v>
       </c>
@@ -10255,7 +10261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>7</v>
       </c>
@@ -10300,7 +10306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>7</v>
       </c>
@@ -10345,7 +10351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>7</v>
       </c>
@@ -10390,7 +10396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>7</v>
       </c>
@@ -10435,7 +10441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>7</v>
       </c>
@@ -10480,7 +10486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>7</v>
       </c>
@@ -10525,7 +10531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>7</v>
       </c>
@@ -10570,7 +10576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>7</v>
       </c>
@@ -10615,7 +10621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>7</v>
       </c>
@@ -10660,7 +10666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>7</v>
       </c>
@@ -10705,7 +10711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>7</v>
       </c>
@@ -10750,7 +10756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>7</v>
       </c>
@@ -10795,7 +10801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>7</v>
       </c>
@@ -10840,7 +10846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>7</v>
       </c>
@@ -10885,7 +10891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>7</v>
       </c>
@@ -10930,7 +10936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>7</v>
       </c>
@@ -10975,7 +10981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>7</v>
       </c>
@@ -11020,7 +11026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>7</v>
       </c>
@@ -11065,7 +11071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>7</v>
       </c>
@@ -11110,7 +11116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>7</v>
       </c>
@@ -11155,7 +11161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>7</v>
       </c>
@@ -11200,7 +11206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>7</v>
       </c>
@@ -11245,7 +11251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>7</v>
       </c>
@@ -11290,7 +11296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>7</v>
       </c>
@@ -11335,7 +11341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>7</v>
       </c>
@@ -11380,7 +11386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>7</v>
       </c>
@@ -11425,7 +11431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>7</v>
       </c>
@@ -11470,7 +11476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>7</v>
       </c>
@@ -11515,7 +11521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>7</v>
       </c>
@@ -11560,7 +11566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>7</v>
       </c>
@@ -11605,7 +11611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>7</v>
       </c>
@@ -11650,7 +11656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>7</v>
       </c>
@@ -11695,7 +11701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>7</v>
       </c>
@@ -11740,7 +11746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>7</v>
       </c>
@@ -11785,7 +11791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>7</v>
       </c>
@@ -11830,7 +11836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>7</v>
       </c>
@@ -11875,7 +11881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>7</v>
       </c>
@@ -11920,7 +11926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>9</v>
       </c>
@@ -11965,7 +11971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>9</v>
       </c>
@@ -12010,7 +12016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>9</v>
       </c>
@@ -12055,7 +12061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>9</v>
       </c>
@@ -12100,7 +12106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>9</v>
       </c>
@@ -12145,7 +12151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>9</v>
       </c>
@@ -12190,7 +12196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>9</v>
       </c>
@@ -12235,7 +12241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>9</v>
       </c>
@@ -12280,7 +12286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>9</v>
       </c>
@@ -12325,7 +12331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>9</v>
       </c>
@@ -12370,7 +12376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>9</v>
       </c>
@@ -12415,7 +12421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>9</v>
       </c>
@@ -12460,7 +12466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>9</v>
       </c>
@@ -12505,7 +12511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>9</v>
       </c>
@@ -12550,7 +12556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>9</v>
       </c>
@@ -12595,7 +12601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>9</v>
       </c>
@@ -12640,7 +12646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>9</v>
       </c>
@@ -12685,7 +12691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>9</v>
       </c>
@@ -12730,7 +12736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>9</v>
       </c>
@@ -12775,7 +12781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>9</v>
       </c>
@@ -12820,7 +12826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>9</v>
       </c>
@@ -12865,7 +12871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>9</v>
       </c>
@@ -12910,7 +12916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>9</v>
       </c>
@@ -12955,7 +12961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>9</v>
       </c>
@@ -13000,7 +13006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>9</v>
       </c>
@@ -13045,7 +13051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>9</v>
       </c>
@@ -13090,7 +13096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1</v>
       </c>
@@ -13135,7 +13141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1</v>
       </c>
@@ -13180,7 +13186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1</v>
       </c>
@@ -13225,7 +13231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1</v>
       </c>
@@ -13270,7 +13276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1</v>
       </c>
@@ -13315,7 +13321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1</v>
       </c>
@@ -13360,7 +13366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1</v>
       </c>
@@ -13405,7 +13411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1</v>
       </c>
@@ -13450,7 +13456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1</v>
       </c>
@@ -13495,7 +13501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1</v>
       </c>
@@ -13540,7 +13546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1</v>
       </c>
@@ -13585,7 +13591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1</v>
       </c>
@@ -13630,7 +13636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1</v>
       </c>
@@ -13675,7 +13681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1</v>
       </c>
@@ -13720,7 +13726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1</v>
       </c>
@@ -13765,7 +13771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1</v>
       </c>
@@ -13810,7 +13816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1</v>
       </c>
@@ -13855,7 +13861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1</v>
       </c>
@@ -13900,7 +13906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1</v>
       </c>
@@ -13945,7 +13951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1</v>
       </c>
@@ -13990,7 +13996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1</v>
       </c>
@@ -14035,7 +14041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1</v>
       </c>
@@ -14080,7 +14086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1</v>
       </c>
@@ -14125,7 +14131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1</v>
       </c>
@@ -14170,7 +14176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1</v>
       </c>
@@ -14215,7 +14221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1</v>
       </c>
@@ -14260,7 +14266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1</v>
       </c>
@@ -14305,7 +14311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1</v>
       </c>
@@ -14350,7 +14356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1</v>
       </c>
@@ -14395,7 +14401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1</v>
       </c>
@@ -14440,7 +14446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1</v>
       </c>
@@ -14485,7 +14491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1</v>
       </c>
@@ -14530,7 +14536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1</v>
       </c>
@@ -14575,7 +14581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1</v>
       </c>
@@ -14620,7 +14626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1</v>
       </c>
@@ -14665,7 +14671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1</v>
       </c>
@@ -14710,7 +14716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1</v>
       </c>
@@ -14755,7 +14761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1</v>
       </c>
@@ -14800,7 +14806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1</v>
       </c>
@@ -14845,7 +14851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1</v>
       </c>
@@ -14890,7 +14896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1</v>
       </c>
@@ -14935,7 +14941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1</v>
       </c>
@@ -14980,7 +14986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1</v>
       </c>
@@ -15025,7 +15031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1</v>
       </c>
@@ -15070,7 +15076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1</v>
       </c>
@@ -15115,7 +15121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1</v>
       </c>
@@ -15160,7 +15166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1</v>
       </c>
@@ -15205,7 +15211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1</v>
       </c>
@@ -15250,7 +15256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1</v>
       </c>
@@ -15295,7 +15301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1</v>
       </c>
@@ -15340,7 +15346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1</v>
       </c>
@@ -15385,7 +15391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1</v>
       </c>
@@ -15430,7 +15436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1</v>
       </c>
@@ -15475,7 +15481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1</v>
       </c>
@@ -15520,7 +15526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1</v>
       </c>
@@ -15565,7 +15571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1</v>
       </c>
@@ -15610,7 +15616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1</v>
       </c>
@@ -15655,7 +15661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1</v>
       </c>
@@ -15700,7 +15706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1</v>
       </c>
@@ -15745,7 +15751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1</v>
       </c>
@@ -15790,7 +15796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1</v>
       </c>
@@ -15835,7 +15841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1</v>
       </c>
@@ -15880,7 +15886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1</v>
       </c>
@@ -15925,7 +15931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1</v>
       </c>
@@ -15970,7 +15976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1</v>
       </c>
@@ -16015,7 +16021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1</v>
       </c>
@@ -16060,7 +16066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1</v>
       </c>
@@ -16105,7 +16111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1</v>
       </c>
@@ -16150,7 +16156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1</v>
       </c>
@@ -16195,7 +16201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1</v>
       </c>
@@ -16240,7 +16246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1</v>
       </c>
@@ -16285,7 +16291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1</v>
       </c>
@@ -16330,7 +16336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1</v>
       </c>
@@ -16375,7 +16381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1</v>
       </c>
@@ -16420,7 +16426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1</v>
       </c>
@@ -16465,7 +16471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1</v>
       </c>
@@ -16510,7 +16516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1</v>
       </c>
@@ -16555,7 +16561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1</v>
       </c>
@@ -16600,7 +16606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1</v>
       </c>
@@ -16645,7 +16651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1</v>
       </c>
@@ -16690,7 +16696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1</v>
       </c>
@@ -16735,7 +16741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1</v>
       </c>
@@ -16780,7 +16786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1</v>
       </c>
@@ -16825,7 +16831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1</v>
       </c>
@@ -16870,7 +16876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1</v>
       </c>
@@ -16915,7 +16921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1</v>
       </c>
@@ -16960,7 +16966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1</v>
       </c>
@@ -17005,7 +17011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1</v>
       </c>
@@ -17050,7 +17056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1</v>
       </c>
@@ -17095,7 +17101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1</v>
       </c>
@@ -17140,7 +17146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1</v>
       </c>
@@ -17185,7 +17191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1</v>
       </c>
@@ -17230,7 +17236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1</v>
       </c>
@@ -17275,7 +17281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1</v>
       </c>
@@ -17320,7 +17326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1</v>
       </c>
@@ -17365,7 +17371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1</v>
       </c>
@@ -17410,7 +17416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1</v>
       </c>
@@ -17455,7 +17461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1</v>
       </c>
@@ -17500,7 +17506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1</v>
       </c>
@@ -17545,7 +17551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1</v>
       </c>
@@ -17590,7 +17596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1</v>
       </c>
@@ -17635,7 +17641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1</v>
       </c>
@@ -17680,7 +17686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1</v>
       </c>
@@ -17725,7 +17731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1</v>
       </c>
@@ -17770,7 +17776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1</v>
       </c>
@@ -17815,7 +17821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>3</v>
       </c>
@@ -17860,7 +17866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>3</v>
       </c>
@@ -17905,7 +17911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>3</v>
       </c>
@@ -17950,7 +17956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>3</v>
       </c>
@@ -17995,7 +18001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>3</v>
       </c>
@@ -18040,7 +18046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>3</v>
       </c>
@@ -18085,7 +18091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>3</v>
       </c>
@@ -18130,7 +18136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>3</v>
       </c>
@@ -18175,7 +18181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>3</v>
       </c>
@@ -18220,7 +18226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>3</v>
       </c>
@@ -18265,7 +18271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>3</v>
       </c>
@@ -18310,7 +18316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>3</v>
       </c>
@@ -18355,7 +18361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>3</v>
       </c>
@@ -18400,7 +18406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>3</v>
       </c>
@@ -18445,7 +18451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>3</v>
       </c>
@@ -18490,7 +18496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>3</v>
       </c>
@@ -18535,7 +18541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>3</v>
       </c>
@@ -18580,7 +18586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>3</v>
       </c>
@@ -18625,7 +18631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>3</v>
       </c>
@@ -18670,7 +18676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>3</v>
       </c>
@@ -18715,7 +18721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>3</v>
       </c>
@@ -18760,7 +18766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>3</v>
       </c>
@@ -18805,7 +18811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>3</v>
       </c>
@@ -18850,7 +18856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>3</v>
       </c>
@@ -18895,7 +18901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>3</v>
       </c>
@@ -18940,7 +18946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>3</v>
       </c>
@@ -18985,7 +18991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>3</v>
       </c>
@@ -19030,7 +19036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>3</v>
       </c>
@@ -19075,7 +19081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>3</v>
       </c>
@@ -19120,7 +19126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>3</v>
       </c>
@@ -19165,7 +19171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>3</v>
       </c>
@@ -19210,7 +19216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>3</v>
       </c>
@@ -19255,7 +19261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>3</v>
       </c>
@@ -19300,7 +19306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>3</v>
       </c>
@@ -19345,7 +19351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>3</v>
       </c>
@@ -19390,7 +19396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>3</v>
       </c>
@@ -19435,7 +19441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>3</v>
       </c>
@@ -19480,7 +19486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>3</v>
       </c>
@@ -19525,7 +19531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>3</v>
       </c>
@@ -19570,7 +19576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>3</v>
       </c>
@@ -19615,7 +19621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>3</v>
       </c>
@@ -19660,7 +19666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>3</v>
       </c>
@@ -19705,7 +19711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>3</v>
       </c>
@@ -19750,7 +19756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>3</v>
       </c>
@@ -19795,7 +19801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>3</v>
       </c>
@@ -19840,7 +19846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>3</v>
       </c>
@@ -19885,7 +19891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>3</v>
       </c>
@@ -19930,7 +19936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>3</v>
       </c>
@@ -19975,7 +19981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>3</v>
       </c>
@@ -20020,7 +20026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>3</v>
       </c>
@@ -20065,7 +20071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>3</v>
       </c>
@@ -20110,7 +20116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>3</v>
       </c>
@@ -20155,7 +20161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>3</v>
       </c>
@@ -20200,7 +20206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>3</v>
       </c>
@@ -20245,7 +20251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>3</v>
       </c>
@@ -20290,7 +20296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>3</v>
       </c>
@@ -20335,7 +20341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>3</v>
       </c>
@@ -20380,7 +20386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>3</v>
       </c>
@@ -20425,7 +20431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>3</v>
       </c>
@@ -20470,7 +20476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>3</v>
       </c>
@@ -20515,7 +20521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>3</v>
       </c>
@@ -20560,7 +20566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>3</v>
       </c>
@@ -20605,7 +20611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>3</v>
       </c>
@@ -20650,7 +20656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>3</v>
       </c>
@@ -20695,7 +20701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>3</v>
       </c>
@@ -20740,7 +20746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>3</v>
       </c>
@@ -20785,7 +20791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>3</v>
       </c>
@@ -20830,7 +20836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>3</v>
       </c>
@@ -20875,7 +20881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>3</v>
       </c>
@@ -20920,7 +20926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>3</v>
       </c>
@@ -20965,7 +20971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>3</v>
       </c>
@@ -21010,7 +21016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>3</v>
       </c>
@@ -21055,7 +21061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>3</v>
       </c>
@@ -21100,7 +21106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>3</v>
       </c>
@@ -21145,7 +21151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>3</v>
       </c>
@@ -21190,7 +21196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>3</v>
       </c>
@@ -21235,7 +21241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>3</v>
       </c>
@@ -21280,7 +21286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>3</v>
       </c>
@@ -21325,7 +21331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>3</v>
       </c>
@@ -21370,7 +21376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>3</v>
       </c>
@@ -21415,7 +21421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>3</v>
       </c>
@@ -21460,7 +21466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>3</v>
       </c>
@@ -21505,7 +21511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>3</v>
       </c>
@@ -21550,7 +21556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>3</v>
       </c>
@@ -21595,7 +21601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>3</v>
       </c>
@@ -21640,7 +21646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>3</v>
       </c>
@@ -21685,7 +21691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>3</v>
       </c>
@@ -21730,7 +21736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>3</v>
       </c>
@@ -21775,7 +21781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>3</v>
       </c>
@@ -21820,7 +21826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>3</v>
       </c>
@@ -21865,7 +21871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>3</v>
       </c>
@@ -21910,7 +21916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>3</v>
       </c>
@@ -21955,7 +21961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>3</v>
       </c>
@@ -22000,7 +22006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>3</v>
       </c>
@@ -22045,7 +22051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>3</v>
       </c>
@@ -22090,7 +22096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>3</v>
       </c>
@@ -22135,7 +22141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>3</v>
       </c>
@@ -22180,7 +22186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>3</v>
       </c>
@@ -22225,7 +22231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>3</v>
       </c>
@@ -22270,7 +22276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>5</v>
       </c>
@@ -22315,7 +22321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>5</v>
       </c>
@@ -22360,7 +22366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>5</v>
       </c>
@@ -22405,7 +22411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>5</v>
       </c>
@@ -22450,7 +22456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>5</v>
       </c>
@@ -22495,7 +22501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>5</v>
       </c>
@@ -22540,7 +22546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>5</v>
       </c>
@@ -22585,7 +22591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>5</v>
       </c>
@@ -22630,7 +22636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>5</v>
       </c>
@@ -22675,7 +22681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>5</v>
       </c>
@@ -22720,7 +22726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>5</v>
       </c>
@@ -22765,7 +22771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>5</v>
       </c>
@@ -22810,7 +22816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>5</v>
       </c>
@@ -22855,7 +22861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>5</v>
       </c>
@@ -22863,7 +22869,7 @@
         <v>479</v>
       </c>
       <c r="C432" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D432" t="s">
         <v>268</v>
@@ -22900,7 +22906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>5</v>
       </c>
@@ -22908,7 +22914,7 @@
         <v>479</v>
       </c>
       <c r="C433" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D433" t="s">
         <v>268</v>
@@ -22945,7 +22951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>5</v>
       </c>
@@ -22990,7 +22996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>5</v>
       </c>
@@ -23035,7 +23041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>5</v>
       </c>
@@ -23080,7 +23086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>5</v>
       </c>
@@ -23125,7 +23131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>5</v>
       </c>
@@ -23170,7 +23176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>5</v>
       </c>
@@ -23215,7 +23221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>5</v>
       </c>
@@ -23260,7 +23266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>5</v>
       </c>
@@ -23305,7 +23311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>5</v>
       </c>
@@ -23350,7 +23356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>5</v>
       </c>
@@ -23395,7 +23401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>5</v>
       </c>
@@ -23530,7 +23536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>5</v>
       </c>
@@ -23575,7 +23581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>5</v>
       </c>
@@ -23620,7 +23626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>5</v>
       </c>
@@ -23665,7 +23671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>5</v>
       </c>
@@ -23710,7 +23716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>5</v>
       </c>
@@ -23755,7 +23761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>5</v>
       </c>
@@ -23800,7 +23806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>5</v>
       </c>
@@ -23845,7 +23851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>5</v>
       </c>
@@ -23890,7 +23896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>5</v>
       </c>
@@ -23935,7 +23941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>5</v>
       </c>
@@ -23980,7 +23986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>5</v>
       </c>
@@ -24115,7 +24121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>5</v>
       </c>
@@ -24160,7 +24166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>5</v>
       </c>
@@ -24205,7 +24211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>5</v>
       </c>
@@ -24250,7 +24256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>5</v>
       </c>
@@ -24295,7 +24301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>5</v>
       </c>
@@ -24340,7 +24346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>5</v>
       </c>
@@ -24385,7 +24391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>5</v>
       </c>
@@ -24430,7 +24436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>5</v>
       </c>
@@ -24475,7 +24481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>5</v>
       </c>
@@ -24520,7 +24526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>5</v>
       </c>
@@ -24565,7 +24571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>5</v>
       </c>
@@ -24610,7 +24616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>5</v>
       </c>
@@ -24655,7 +24661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>5</v>
       </c>
@@ -24790,7 +24796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>5</v>
       </c>
@@ -24835,7 +24841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>5</v>
       </c>
@@ -24880,7 +24886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>5</v>
       </c>
@@ -24925,7 +24931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>5</v>
       </c>
@@ -24970,7 +24976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>5</v>
       </c>
@@ -25015,7 +25021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>5</v>
       </c>
@@ -25060,7 +25066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>5</v>
       </c>
@@ -25105,7 +25111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>5</v>
       </c>
@@ -25150,7 +25156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>5</v>
       </c>
@@ -25195,7 +25201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>5</v>
       </c>
@@ -25240,7 +25246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>5</v>
       </c>
@@ -25285,7 +25291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>5</v>
       </c>
@@ -25330,7 +25336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>5</v>
       </c>
@@ -25465,7 +25471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>5</v>
       </c>
@@ -25510,7 +25516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>5</v>
       </c>
@@ -25555,7 +25561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>5</v>
       </c>
@@ -25600,7 +25606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>5</v>
       </c>
@@ -25645,7 +25651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>5</v>
       </c>
@@ -25690,7 +25696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>5</v>
       </c>
@@ -25735,7 +25741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>5</v>
       </c>
@@ -25780,7 +25786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>5</v>
       </c>
@@ -25825,7 +25831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>5</v>
       </c>
@@ -25870,7 +25876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>5</v>
       </c>
@@ -25915,7 +25921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>5</v>
       </c>
@@ -25960,7 +25966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>5</v>
       </c>
@@ -26095,7 +26101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>5</v>
       </c>
@@ -26140,7 +26146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>5</v>
       </c>
@@ -26185,7 +26191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>5</v>
       </c>
@@ -26230,7 +26236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>5</v>
       </c>
@@ -26275,7 +26281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>5</v>
       </c>
@@ -26320,7 +26326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>5</v>
       </c>
@@ -26365,7 +26371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>5</v>
       </c>
@@ -26410,7 +26416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>5</v>
       </c>
@@ -26455,7 +26461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>5</v>
       </c>
@@ -26500,7 +26506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>5</v>
       </c>
@@ -26545,7 +26551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>5</v>
       </c>
@@ -26590,7 +26596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>5</v>
       </c>
@@ -26635,7 +26641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>5</v>
       </c>
@@ -26770,7 +26776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>5</v>
       </c>
@@ -26815,7 +26821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>5</v>
       </c>
@@ -26860,7 +26866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>5</v>
       </c>
@@ -26905,7 +26911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>5</v>
       </c>
@@ -26950,7 +26956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>5</v>
       </c>
@@ -26995,7 +27001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>5</v>
       </c>
@@ -27040,7 +27046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>5</v>
       </c>
@@ -27085,7 +27091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>5</v>
       </c>
@@ -27130,7 +27136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>5</v>
       </c>
@@ -27175,7 +27181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>5</v>
       </c>
@@ -27220,7 +27226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>5</v>
       </c>
@@ -27265,7 +27271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>5</v>
       </c>
@@ -27400,7 +27406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>5</v>
       </c>
@@ -27445,7 +27451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>5</v>
       </c>
@@ -27490,7 +27496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>7</v>
       </c>
@@ -27535,7 +27541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>7</v>
       </c>
@@ -27580,7 +27586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>7</v>
       </c>
@@ -27625,7 +27631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>7</v>
       </c>
@@ -27670,7 +27676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>7</v>
       </c>
@@ -27715,7 +27721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>7</v>
       </c>
@@ -27760,7 +27766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>7</v>
       </c>
@@ -27805,7 +27811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>7</v>
       </c>
@@ -27850,7 +27856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>7</v>
       </c>
@@ -27895,7 +27901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>7</v>
       </c>
@@ -27940,7 +27946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>7</v>
       </c>
@@ -27985,7 +27991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>7</v>
       </c>
@@ -28030,7 +28036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>7</v>
       </c>
@@ -28075,7 +28081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>7</v>
       </c>
@@ -28120,7 +28126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>7</v>
       </c>
@@ -28165,7 +28171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>7</v>
       </c>
@@ -28210,7 +28216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>7</v>
       </c>
@@ -28255,7 +28261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>7</v>
       </c>
@@ -28300,7 +28306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>7</v>
       </c>
@@ -28345,7 +28351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>7</v>
       </c>
@@ -28390,7 +28396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>7</v>
       </c>
@@ -28435,7 +28441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>7</v>
       </c>
@@ -28480,7 +28486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>7</v>
       </c>
@@ -28525,7 +28531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>7</v>
       </c>
@@ -28570,7 +28576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>7</v>
       </c>
@@ -28615,7 +28621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>7</v>
       </c>
@@ -28660,7 +28666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>7</v>
       </c>
@@ -28705,7 +28711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>7</v>
       </c>
@@ -28750,7 +28756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>7</v>
       </c>
@@ -28795,7 +28801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>7</v>
       </c>
@@ -28840,7 +28846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>7</v>
       </c>
@@ -28885,7 +28891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>7</v>
       </c>
@@ -28930,7 +28936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>7</v>
       </c>
@@ -28975,7 +28981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>7</v>
       </c>
@@ -29020,7 +29026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>7</v>
       </c>
@@ -29065,7 +29071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>7</v>
       </c>
@@ -29110,7 +29116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>7</v>
       </c>
@@ -29155,7 +29161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>7</v>
       </c>
@@ -29200,7 +29206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>7</v>
       </c>
@@ -29245,7 +29251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>7</v>
       </c>
@@ -29290,7 +29296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>7</v>
       </c>
@@ -29335,7 +29341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>7</v>
       </c>
@@ -29380,7 +29386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>7</v>
       </c>
@@ -29425,7 +29431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>7</v>
       </c>
@@ -29470,7 +29476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>7</v>
       </c>
@@ -29515,7 +29521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>7</v>
       </c>
@@ -29560,7 +29566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>7</v>
       </c>
@@ -29605,7 +29611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>7</v>
       </c>
@@ -29650,7 +29656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>7</v>
       </c>
@@ -29695,7 +29701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>7</v>
       </c>
@@ -29740,7 +29746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>7</v>
       </c>
@@ -29785,7 +29791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>7</v>
       </c>
@@ -29830,7 +29836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>7</v>
       </c>
@@ -29875,7 +29881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>7</v>
       </c>
@@ -29920,7 +29926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>7</v>
       </c>
@@ -29965,7 +29971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>7</v>
       </c>
@@ -30010,7 +30016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>7</v>
       </c>
@@ -30055,7 +30061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>7</v>
       </c>
@@ -30100,7 +30106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>7</v>
       </c>
@@ -30145,7 +30151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>7</v>
       </c>
@@ -30190,7 +30196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>7</v>
       </c>
@@ -30235,7 +30241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>7</v>
       </c>
@@ -30280,7 +30286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>7</v>
       </c>
@@ -30325,7 +30331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>7</v>
       </c>
@@ -30370,7 +30376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>7</v>
       </c>
@@ -30415,7 +30421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>7</v>
       </c>
@@ -30460,7 +30466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>7</v>
       </c>
@@ -30505,7 +30511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>7</v>
       </c>
@@ -30550,7 +30556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>7</v>
       </c>
@@ -30595,7 +30601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>7</v>
       </c>
@@ -30640,7 +30646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>7</v>
       </c>
@@ -30685,7 +30691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>7</v>
       </c>
@@ -30730,7 +30736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>7</v>
       </c>
@@ -30775,7 +30781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>7</v>
       </c>
@@ -30820,7 +30826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>7</v>
       </c>
@@ -30865,7 +30871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>7</v>
       </c>
@@ -30910,7 +30916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>7</v>
       </c>
@@ -30955,7 +30961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>7</v>
       </c>
@@ -31000,7 +31006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>7</v>
       </c>
@@ -31045,7 +31051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>7</v>
       </c>
@@ -31090,7 +31096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>7</v>
       </c>
@@ -31135,7 +31141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>7</v>
       </c>
@@ -31180,7 +31186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>9</v>
       </c>
@@ -31225,7 +31231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>9</v>
       </c>
@@ -31270,7 +31276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>9</v>
       </c>
@@ -31315,7 +31321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>9</v>
       </c>
@@ -31360,7 +31366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>9</v>
       </c>
@@ -31405,7 +31411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>9</v>
       </c>
@@ -31450,7 +31456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>9</v>
       </c>
@@ -31495,7 +31501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>9</v>
       </c>
@@ -31540,7 +31546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>9</v>
       </c>
@@ -31585,7 +31591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>9</v>
       </c>
@@ -31630,7 +31636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>9</v>
       </c>
@@ -31675,7 +31681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>9</v>
       </c>
@@ -31720,7 +31726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>9</v>
       </c>
@@ -31765,7 +31771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>9</v>
       </c>
@@ -31810,7 +31816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>9</v>
       </c>
@@ -31855,7 +31861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>9</v>
       </c>
@@ -31900,7 +31906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>9</v>
       </c>
@@ -31945,7 +31951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>9</v>
       </c>
@@ -31990,7 +31996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>9</v>
       </c>
@@ -32035,7 +32041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>9</v>
       </c>
@@ -32080,7 +32086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>9</v>
       </c>
@@ -32125,7 +32131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>9</v>
       </c>
@@ -32170,7 +32176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>9</v>
       </c>
@@ -32215,7 +32221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>9</v>
       </c>
@@ -32260,7 +32266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>9</v>
       </c>
@@ -32305,7 +32311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>9</v>
       </c>
@@ -32350,7 +32356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>9</v>
       </c>
@@ -32395,7 +32401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>9</v>
       </c>
@@ -32440,7 +32446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>9</v>
       </c>
@@ -32485,7 +32491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>9</v>
       </c>
@@ -32530,7 +32536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>9</v>
       </c>
@@ -32575,7 +32581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>9</v>
       </c>
@@ -32620,7 +32626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>9</v>
       </c>
@@ -32665,7 +32671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>9</v>
       </c>
@@ -32710,7 +32716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>9</v>
       </c>
@@ -32755,7 +32761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>9</v>
       </c>
@@ -32800,7 +32806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>9</v>
       </c>
@@ -32845,7 +32851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>9</v>
       </c>
@@ -32890,7 +32896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>9</v>
       </c>
@@ -32935,7 +32941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>9</v>
       </c>
@@ -32980,7 +32986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>9</v>
       </c>
@@ -33025,7 +33031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>9</v>
       </c>
@@ -33070,7 +33076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>9</v>
       </c>
@@ -33115,7 +33121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>9</v>
       </c>
@@ -33160,7 +33166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>9</v>
       </c>
@@ -33205,7 +33211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>9</v>
       </c>
@@ -33250,7 +33256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>9</v>
       </c>
@@ -33295,7 +33301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>9</v>
       </c>
@@ -33340,7 +33346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>9</v>
       </c>
@@ -33385,7 +33391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>1</v>
       </c>
@@ -33430,7 +33436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>1</v>
       </c>
@@ -33475,7 +33481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>1</v>
       </c>
@@ -33520,7 +33526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>1</v>
       </c>
@@ -33565,7 +33571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>1</v>
       </c>
@@ -33610,7 +33616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>1</v>
       </c>
@@ -33655,7 +33661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>1</v>
       </c>
@@ -33700,7 +33706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>1</v>
       </c>
@@ -33745,7 +33751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>1</v>
       </c>
@@ -33790,7 +33796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>1</v>
       </c>
@@ -33835,7 +33841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>1</v>
       </c>
@@ -33880,7 +33886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>1</v>
       </c>
@@ -33925,7 +33931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>1</v>
       </c>
@@ -33970,7 +33976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>1</v>
       </c>
@@ -34015,7 +34021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>1</v>
       </c>
@@ -34060,7 +34066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>1</v>
       </c>
@@ -34105,7 +34111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>1</v>
       </c>
@@ -34150,7 +34156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>1</v>
       </c>
@@ -34195,7 +34201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>1</v>
       </c>
@@ -34240,7 +34246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>1</v>
       </c>
@@ -34285,7 +34291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>1</v>
       </c>
@@ -34330,7 +34336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>1</v>
       </c>
@@ -34375,7 +34381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>1</v>
       </c>
@@ -34420,7 +34426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>1</v>
       </c>
@@ -34465,7 +34471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>1</v>
       </c>
@@ -34510,7 +34516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>1</v>
       </c>
@@ -34555,7 +34561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>1</v>
       </c>
@@ -34600,7 +34606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>1</v>
       </c>
@@ -34645,7 +34651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>1</v>
       </c>
@@ -34690,7 +34696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>1</v>
       </c>
@@ -34735,7 +34741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>1</v>
       </c>
@@ -34780,7 +34786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>1</v>
       </c>
@@ -34825,7 +34831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A698">
         <v>1</v>
       </c>
@@ -34870,7 +34876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>1</v>
       </c>
@@ -34915,7 +34921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700">
         <v>1</v>
       </c>
@@ -34960,7 +34966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A701">
         <v>1</v>
       </c>
@@ -35005,7 +35011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A702">
         <v>1</v>
       </c>
@@ -35050,7 +35056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703">
         <v>1</v>
       </c>
@@ -35095,7 +35101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A704">
         <v>1</v>
       </c>
@@ -35140,7 +35146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A705">
         <v>1</v>
       </c>
@@ -35185,7 +35191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706">
         <v>1</v>
       </c>
@@ -35230,7 +35236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A707">
         <v>1</v>
       </c>
@@ -35275,7 +35281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708">
         <v>1</v>
       </c>
@@ -35320,7 +35326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A709">
         <v>1</v>
       </c>
@@ -35365,7 +35371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A710">
         <v>1</v>
       </c>
@@ -35410,7 +35416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A711">
         <v>1</v>
       </c>
@@ -35455,7 +35461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712">
         <v>1</v>
       </c>
@@ -35500,7 +35506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A713">
         <v>1</v>
       </c>
@@ -35545,7 +35551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714">
         <v>1</v>
       </c>
@@ -35590,7 +35596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A715">
         <v>1</v>
       </c>
@@ -35635,7 +35641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716">
         <v>1</v>
       </c>
@@ -35680,7 +35686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A717">
         <v>1</v>
       </c>
@@ -35725,7 +35731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A718">
         <v>1</v>
       </c>
@@ -35770,7 +35776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A719">
         <v>1</v>
       </c>
@@ -35815,7 +35821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A720">
         <v>1</v>
       </c>
@@ -35860,7 +35866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A721">
         <v>1</v>
       </c>
@@ -35905,7 +35911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A722">
         <v>1</v>
       </c>
@@ -35950,7 +35956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A723">
         <v>1</v>
       </c>
@@ -35995,7 +36001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A724">
         <v>1</v>
       </c>
@@ -36040,7 +36046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A725">
         <v>1</v>
       </c>
@@ -36085,7 +36091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A726">
         <v>1</v>
       </c>
@@ -36130,7 +36136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A727">
         <v>1</v>
       </c>
@@ -36175,7 +36181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A728">
         <v>1</v>
       </c>
@@ -36220,7 +36226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A729">
         <v>1</v>
       </c>
@@ -36265,7 +36271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A730">
         <v>1</v>
       </c>
@@ -36310,7 +36316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A731">
         <v>1</v>
       </c>
@@ -36355,7 +36361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A732">
         <v>1</v>
       </c>
@@ -36400,7 +36406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A733">
         <v>1</v>
       </c>
@@ -36445,7 +36451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A734">
         <v>1</v>
       </c>
@@ -36490,7 +36496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A735">
         <v>1</v>
       </c>
@@ -36535,7 +36541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A736">
         <v>3</v>
       </c>
@@ -36580,7 +36586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A737">
         <v>3</v>
       </c>
@@ -36625,7 +36631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A738">
         <v>3</v>
       </c>
@@ -36670,7 +36676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A739">
         <v>3</v>
       </c>
@@ -36715,7 +36721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A740">
         <v>3</v>
       </c>
@@ -36760,7 +36766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A741">
         <v>3</v>
       </c>
@@ -36805,7 +36811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A742">
         <v>3</v>
       </c>
@@ -36850,7 +36856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A743">
         <v>3</v>
       </c>
@@ -36895,7 +36901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A744">
         <v>3</v>
       </c>
@@ -36940,7 +36946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A745">
         <v>3</v>
       </c>
@@ -36985,7 +36991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A746">
         <v>3</v>
       </c>
@@ -37030,7 +37036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A747">
         <v>3</v>
       </c>
@@ -37075,7 +37081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A748">
         <v>3</v>
       </c>
@@ -37120,7 +37126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A749">
         <v>3</v>
       </c>
@@ -37165,7 +37171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A750">
         <v>3</v>
       </c>
@@ -37210,7 +37216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A751">
         <v>3</v>
       </c>
@@ -37255,7 +37261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A752">
         <v>3</v>
       </c>
@@ -37300,7 +37306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A753">
         <v>3</v>
       </c>
@@ -37345,7 +37351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A754">
         <v>3</v>
       </c>
@@ -37390,7 +37396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A755">
         <v>3</v>
       </c>
@@ -37435,7 +37441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A756">
         <v>3</v>
       </c>
@@ -37480,7 +37486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A757">
         <v>3</v>
       </c>
@@ -37525,7 +37531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A758">
         <v>3</v>
       </c>
@@ -37570,7 +37576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A759">
         <v>3</v>
       </c>
@@ -37615,7 +37621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A760">
         <v>3</v>
       </c>
@@ -37660,7 +37666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A761">
         <v>3</v>
       </c>
@@ -37705,7 +37711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A762">
         <v>3</v>
       </c>
@@ -37750,7 +37756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A763">
         <v>3</v>
       </c>
@@ -37795,7 +37801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A764">
         <v>3</v>
       </c>
@@ -37840,7 +37846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A765">
         <v>3</v>
       </c>
@@ -37885,7 +37891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A766">
         <v>5</v>
       </c>
@@ -37930,7 +37936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A767">
         <v>5</v>
       </c>
@@ -37975,7 +37981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A768">
         <v>5</v>
       </c>
@@ -38020,7 +38026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A769">
         <v>5</v>
       </c>
@@ -38065,7 +38071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A770">
         <v>5</v>
       </c>
@@ -38110,7 +38116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A771">
         <v>5</v>
       </c>
@@ -38155,7 +38161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A772">
         <v>5</v>
       </c>
@@ -38200,7 +38206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A773">
         <v>5</v>
       </c>
@@ -38245,7 +38251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A774">
         <v>5</v>
       </c>
@@ -38290,7 +38296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A775">
         <v>5</v>
       </c>
@@ -38335,7 +38341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A776">
         <v>5</v>
       </c>
@@ -38380,7 +38386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A777">
         <v>5</v>
       </c>
@@ -38425,7 +38431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A778">
         <v>5</v>
       </c>
@@ -38470,7 +38476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A779">
         <v>5</v>
       </c>
@@ -38515,7 +38521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A780">
         <v>5</v>
       </c>
@@ -38560,7 +38566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A781">
         <v>5</v>
       </c>
@@ -38605,7 +38611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A782">
         <v>5</v>
       </c>
@@ -38650,7 +38656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A783">
         <v>5</v>
       </c>
@@ -38695,7 +38701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A784">
         <v>5</v>
       </c>
@@ -38740,7 +38746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A785">
         <v>5</v>
       </c>
@@ -38785,7 +38791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A786">
         <v>5</v>
       </c>
@@ -38830,7 +38836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A787">
         <v>5</v>
       </c>
@@ -38875,7 +38881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A788">
         <v>5</v>
       </c>
@@ -38920,7 +38926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A789">
         <v>5</v>
       </c>
@@ -38965,7 +38971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A790">
         <v>5</v>
       </c>
@@ -39010,7 +39016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A791">
         <v>5</v>
       </c>
@@ -39055,7 +39061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A792">
         <v>5</v>
       </c>
@@ -39100,7 +39106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A793">
         <v>5</v>
       </c>
@@ -39145,7 +39151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A794">
         <v>5</v>
       </c>
@@ -39190,7 +39196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A795">
         <v>5</v>
       </c>
@@ -39235,7 +39241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A796">
         <v>5</v>
       </c>
@@ -39280,7 +39286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A797">
         <v>5</v>
       </c>
@@ -39325,7 +39331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A798">
         <v>5</v>
       </c>
@@ -39370,7 +39376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A799">
         <v>5</v>
       </c>
@@ -39415,7 +39421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A800">
         <v>5</v>
       </c>
@@ -39460,7 +39466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A801">
         <v>5</v>
       </c>
@@ -39505,7 +39511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A802">
         <v>5</v>
       </c>
@@ -39550,7 +39556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A803">
         <v>5</v>
       </c>
@@ -39595,7 +39601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A804">
         <v>5</v>
       </c>
@@ -39640,7 +39646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A805">
         <v>5</v>
       </c>
@@ -39685,7 +39691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A806">
         <v>5</v>
       </c>
@@ -39730,7 +39736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A807">
         <v>5</v>
       </c>
@@ -39775,7 +39781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A808">
         <v>5</v>
       </c>
@@ -39820,7 +39826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A809">
         <v>5</v>
       </c>
@@ -39865,7 +39871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A810">
         <v>5</v>
       </c>
@@ -39910,7 +39916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A811">
         <v>5</v>
       </c>
@@ -39955,7 +39961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A812">
         <v>5</v>
       </c>
@@ -40000,7 +40006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A813">
         <v>5</v>
       </c>
@@ -40045,7 +40051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A814">
         <v>5</v>
       </c>
@@ -40090,7 +40096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A815">
         <v>5</v>
       </c>
@@ -40135,7 +40141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A816">
         <v>5</v>
       </c>
@@ -40180,7 +40186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A817">
         <v>5</v>
       </c>
@@ -40225,7 +40231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A818">
         <v>5</v>
       </c>
@@ -40270,7 +40276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A819">
         <v>5</v>
       </c>
@@ -40315,7 +40321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A820">
         <v>7</v>
       </c>
@@ -40360,7 +40366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A821">
         <v>7</v>
       </c>
@@ -40405,7 +40411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A822">
         <v>7</v>
       </c>
@@ -40450,7 +40456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A823">
         <v>7</v>
       </c>
@@ -40495,7 +40501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A824">
         <v>7</v>
       </c>
@@ -40540,7 +40546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A825">
         <v>7</v>
       </c>
@@ -40585,7 +40591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A826">
         <v>7</v>
       </c>
@@ -40630,7 +40636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A827">
         <v>7</v>
       </c>
@@ -40675,7 +40681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A828">
         <v>7</v>
       </c>
@@ -40720,7 +40726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A829">
         <v>7</v>
       </c>
@@ -40765,7 +40771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A830">
         <v>7</v>
       </c>
@@ -40810,7 +40816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A831">
         <v>7</v>
       </c>
@@ -40855,7 +40861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A832">
         <v>7</v>
       </c>
@@ -40900,7 +40906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A833">
         <v>7</v>
       </c>
@@ -40945,7 +40951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A834">
         <v>7</v>
       </c>
@@ -40990,7 +40996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A835">
         <v>7</v>
       </c>
@@ -41035,7 +41041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A836">
         <v>7</v>
       </c>
@@ -41080,7 +41086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A837">
         <v>7</v>
       </c>
@@ -41125,7 +41131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A838">
         <v>7</v>
       </c>
@@ -41170,7 +41176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A839">
         <v>7</v>
       </c>
@@ -41215,7 +41221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A840">
         <v>7</v>
       </c>
@@ -41260,7 +41266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A841">
         <v>7</v>
       </c>
@@ -41305,7 +41311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A842">
         <v>7</v>
       </c>
@@ -41350,7 +41356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A843">
         <v>7</v>
       </c>
@@ -41395,7 +41401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A844">
         <v>7</v>
       </c>
@@ -41440,7 +41446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A845">
         <v>7</v>
       </c>
@@ -41485,7 +41491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A846">
         <v>7</v>
       </c>
@@ -41530,7 +41536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A847">
         <v>7</v>
       </c>
@@ -41575,7 +41581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A848">
         <v>7</v>
       </c>
@@ -41620,7 +41626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A849">
         <v>7</v>
       </c>
@@ -41665,7 +41671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A850">
         <v>7</v>
       </c>
@@ -41710,7 +41716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A851">
         <v>7</v>
       </c>
@@ -41755,7 +41761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A852">
         <v>7</v>
       </c>
@@ -41800,7 +41806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A853">
         <v>7</v>
       </c>
@@ -41845,7 +41851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A854">
         <v>7</v>
       </c>
@@ -41890,7 +41896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A855">
         <v>7</v>
       </c>
@@ -41935,7 +41941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A856">
         <v>7</v>
       </c>
@@ -41980,7 +41986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A857">
         <v>7</v>
       </c>
@@ -42025,7 +42031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A858">
         <v>7</v>
       </c>
@@ -42070,7 +42076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A859">
         <v>7</v>
       </c>
@@ -42115,7 +42121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A860">
         <v>7</v>
       </c>
@@ -42160,7 +42166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A861">
         <v>9</v>
       </c>
@@ -42205,7 +42211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A862">
         <v>9</v>
       </c>
@@ -42250,7 +42256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A863">
         <v>9</v>
       </c>
@@ -42295,7 +42301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A864">
         <v>9</v>
       </c>
@@ -42340,7 +42346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A865">
         <v>9</v>
       </c>
@@ -42385,7 +42391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A866">
         <v>9</v>
       </c>
@@ -42430,7 +42436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A867">
         <v>9</v>
       </c>
@@ -42475,7 +42481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A868">
         <v>9</v>
       </c>
@@ -42520,7 +42526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A869">
         <v>9</v>
       </c>
@@ -42565,7 +42571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A870">
         <v>9</v>
       </c>
@@ -42610,7 +42616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A871">
         <v>9</v>
       </c>
@@ -42655,7 +42661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A872">
         <v>9</v>
       </c>
@@ -42700,7 +42706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A873">
         <v>9</v>
       </c>
@@ -42745,7 +42751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A874">
         <v>9</v>
       </c>
@@ -42790,7 +42796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A875">
         <v>9</v>
       </c>
@@ -42835,7 +42841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A876">
         <v>1</v>
       </c>
@@ -42880,7 +42886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A877">
         <v>1</v>
       </c>
@@ -42925,7 +42931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A878">
         <v>1</v>
       </c>
@@ -42970,7 +42976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A879">
         <v>1</v>
       </c>
@@ -43015,7 +43021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A880">
         <v>1</v>
       </c>
@@ -43060,7 +43066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A881">
         <v>1</v>
       </c>
@@ -43105,7 +43111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A882">
         <v>1</v>
       </c>
@@ -43150,7 +43156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A883">
         <v>1</v>
       </c>
@@ -43195,7 +43201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A884">
         <v>1</v>
       </c>
@@ -43240,7 +43246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A885">
         <v>1</v>
       </c>
@@ -43285,7 +43291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A886">
         <v>1</v>
       </c>
@@ -43330,7 +43336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A887">
         <v>1</v>
       </c>
@@ -43375,7 +43381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A888">
         <v>1</v>
       </c>
@@ -43420,7 +43426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A889">
         <v>1</v>
       </c>
@@ -43465,7 +43471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A890">
         <v>1</v>
       </c>
@@ -43510,7 +43516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A891">
         <v>1</v>
       </c>
@@ -43555,7 +43561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A892">
         <v>1</v>
       </c>
@@ -43600,7 +43606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A893">
         <v>1</v>
       </c>
@@ -43645,7 +43651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A894">
         <v>1</v>
       </c>
@@ -43690,7 +43696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A895">
         <v>1</v>
       </c>
@@ -43735,7 +43741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A896">
         <v>1</v>
       </c>
@@ -43780,7 +43786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A897">
         <v>1</v>
       </c>
@@ -43825,7 +43831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A898">
         <v>1</v>
       </c>
@@ -43870,7 +43876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A899">
         <v>1</v>
       </c>
@@ -43915,7 +43921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A900">
         <v>1</v>
       </c>
@@ -43960,7 +43966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A901">
         <v>1</v>
       </c>
@@ -44005,7 +44011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A902">
         <v>1</v>
       </c>
@@ -44050,7 +44056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A903">
         <v>1</v>
       </c>
@@ -44095,7 +44101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A904">
         <v>1</v>
       </c>
@@ -44140,7 +44146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A905">
         <v>1</v>
       </c>
@@ -44185,7 +44191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A906">
         <v>1</v>
       </c>
@@ -44230,7 +44236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A907">
         <v>3</v>
       </c>
@@ -44275,7 +44281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A908">
         <v>3</v>
       </c>
@@ -44320,7 +44326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A909">
         <v>3</v>
       </c>
@@ -44365,7 +44371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A910">
         <v>3</v>
       </c>
@@ -44410,7 +44416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A911">
         <v>3</v>
       </c>
@@ -44455,7 +44461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="912" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A912">
         <v>3</v>
       </c>
@@ -44500,7 +44506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A913">
         <v>3</v>
       </c>
@@ -44545,7 +44551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A914">
         <v>3</v>
       </c>
@@ -44590,7 +44596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A915">
         <v>3</v>
       </c>
@@ -44635,7 +44641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A916">
         <v>3</v>
       </c>
@@ -44680,7 +44686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A917">
         <v>3</v>
       </c>
@@ -44725,7 +44731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A918">
         <v>3</v>
       </c>
@@ -44770,7 +44776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A919">
         <v>3</v>
       </c>
@@ -44815,7 +44821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A920">
         <v>3</v>
       </c>
@@ -44860,7 +44866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A921">
         <v>3</v>
       </c>
@@ -44905,7 +44911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A922">
         <v>3</v>
       </c>
@@ -44950,7 +44956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A923">
         <v>3</v>
       </c>
@@ -44995,7 +45001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A924">
         <v>3</v>
       </c>
@@ -45040,7 +45046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A925">
         <v>3</v>
       </c>
@@ -45085,7 +45091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A926">
         <v>3</v>
       </c>
@@ -45130,7 +45136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A927">
         <v>3</v>
       </c>
@@ -45175,7 +45181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="928" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A928">
         <v>3</v>
       </c>
@@ -45220,7 +45226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A929">
         <v>3</v>
       </c>
@@ -45265,7 +45271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="930" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A930">
         <v>3</v>
       </c>
@@ -45310,7 +45316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="931" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A931">
         <v>3</v>
       </c>
@@ -45355,7 +45361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="932" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A932">
         <v>3</v>
       </c>
@@ -45400,7 +45406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="933" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A933">
         <v>3</v>
       </c>
@@ -45445,7 +45451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="934" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A934">
         <v>3</v>
       </c>
@@ -45490,7 +45496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="935" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A935">
         <v>3</v>
       </c>
@@ -45535,7 +45541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="936" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A936">
         <v>3</v>
       </c>
@@ -45580,7 +45586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="937" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A937">
         <v>3</v>
       </c>
@@ -45625,7 +45631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="938" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A938">
         <v>5</v>
       </c>
@@ -45670,7 +45676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A939">
         <v>5</v>
       </c>
@@ -45715,7 +45721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A940">
         <v>5</v>
       </c>
@@ -45760,7 +45766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A941">
         <v>5</v>
       </c>
@@ -45805,7 +45811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A942">
         <v>5</v>
       </c>
@@ -45850,7 +45856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A943">
         <v>5</v>
       </c>
@@ -45895,7 +45901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="944" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A944">
         <v>5</v>
       </c>
@@ -45940,7 +45946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A945">
         <v>5</v>
       </c>
@@ -45985,7 +45991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A946">
         <v>5</v>
       </c>
@@ -46030,7 +46036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="947" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A947">
         <v>5</v>
       </c>
@@ -46075,7 +46081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A948">
         <v>5</v>
       </c>
@@ -46120,7 +46126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A949">
         <v>5</v>
       </c>
@@ -46165,7 +46171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="950" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A950">
         <v>5</v>
       </c>
@@ -46210,7 +46216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="951" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A951">
         <v>5</v>
       </c>
@@ -46255,7 +46261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="952" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A952">
         <v>5</v>
       </c>
@@ -46300,7 +46306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="953" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A953">
         <v>5</v>
       </c>
@@ -46345,7 +46351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="954" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A954">
         <v>5</v>
       </c>
@@ -46390,7 +46396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="955" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A955">
         <v>5</v>
       </c>
@@ -46435,7 +46441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="956" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A956">
         <v>5</v>
       </c>
@@ -46480,7 +46486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="957" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A957">
         <v>5</v>
       </c>
@@ -46525,7 +46531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="958" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A958">
         <v>5</v>
       </c>
@@ -46570,7 +46576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="959" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A959">
         <v>5</v>
       </c>
@@ -46615,7 +46621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A960">
         <v>5</v>
       </c>
@@ -46660,7 +46666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="961" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A961">
         <v>5</v>
       </c>
@@ -46705,7 +46711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="962" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A962">
         <v>5</v>
       </c>
@@ -46750,7 +46756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A963">
         <v>5</v>
       </c>
@@ -46795,7 +46801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="964" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A964">
         <v>5</v>
       </c>
@@ -46840,7 +46846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="965" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A965">
         <v>5</v>
       </c>
@@ -46885,7 +46891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="966" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A966">
         <v>5</v>
       </c>
@@ -46930,7 +46936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="967" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A967">
         <v>5</v>
       </c>
@@ -46975,7 +46981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="968" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A968">
         <v>5</v>
       </c>
@@ -47020,7 +47026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="969" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A969">
         <v>5</v>
       </c>
@@ -47065,7 +47071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="970" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A970">
         <v>5</v>
       </c>
@@ -47110,7 +47116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="971" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A971">
         <v>5</v>
       </c>
@@ -47155,7 +47161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A972">
         <v>5</v>
       </c>
@@ -47200,7 +47206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="973" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A973">
         <v>5</v>
       </c>
@@ -47245,7 +47251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="974" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A974">
         <v>5</v>
       </c>
@@ -47290,7 +47296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="975" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A975">
         <v>5</v>
       </c>
@@ -47335,7 +47341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="976" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A976">
         <v>5</v>
       </c>
@@ -47380,7 +47386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="977" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A977">
         <v>5</v>
       </c>
@@ -47425,7 +47431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="978" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A978">
         <v>5</v>
       </c>
@@ -47470,7 +47476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="979" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A979" s="2">
         <v>3</v>
       </c>
@@ -47524,7 +47530,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="980" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A980" s="2">
         <v>3</v>
       </c>
@@ -47578,7 +47584,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="981" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A981" s="2">
         <v>3</v>
       </c>
@@ -47632,7 +47638,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="982" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A982" s="2">
         <v>3</v>
       </c>
@@ -47686,7 +47692,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="983" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A983" s="2">
         <v>3</v>
       </c>
@@ -47740,7 +47746,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="984" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A984" s="2">
         <v>3</v>
       </c>
@@ -47794,7 +47800,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="985" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A985" s="2">
         <v>3</v>
       </c>
@@ -47848,7 +47854,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="986" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A986" s="2">
         <v>3</v>
       </c>
@@ -47902,7 +47908,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="987" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A987" s="2">
         <v>3</v>
       </c>
@@ -47956,7 +47962,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="988" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A988" s="2">
         <v>3</v>
       </c>
@@ -48010,7 +48016,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="989" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A989" s="2">
         <v>3</v>
       </c>
@@ -48064,7 +48070,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="990" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A990" s="2">
         <v>3</v>
       </c>
@@ -48118,7 +48124,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="991" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A991" s="2">
         <v>5</v>
       </c>
@@ -48172,7 +48178,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="992" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A992" s="2">
         <v>5</v>
       </c>
@@ -48226,7 +48232,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="993" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A993" s="2">
         <v>5</v>
       </c>
@@ -48280,7 +48286,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="994" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A994" s="2">
         <v>5</v>
       </c>
@@ -48334,7 +48340,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="995" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A995" s="2">
         <v>7</v>
       </c>
@@ -48388,7 +48394,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="996" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A996" s="2">
         <v>7</v>
       </c>
@@ -48442,7 +48448,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="997" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A997" s="2">
         <v>7</v>
       </c>
@@ -48496,7 +48502,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="998" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A998" s="2">
         <v>7</v>
       </c>
@@ -48550,7 +48556,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="999" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A999" s="2">
         <v>7</v>
       </c>
@@ -48604,7 +48610,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="1000" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1000" s="2">
         <v>7</v>
       </c>
@@ -48658,7 +48664,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="1001" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1001" s="2">
         <v>5</v>
       </c>
@@ -48712,7 +48718,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="1002" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1002" s="2">
         <v>5</v>
       </c>
@@ -48766,7 +48772,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="1003" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1003" s="2">
         <v>5</v>
       </c>
@@ -48820,7 +48826,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="1004" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1004" s="2">
         <v>7</v>
       </c>
@@ -48874,7 +48880,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="1005" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1005" s="2">
         <v>7</v>
       </c>
@@ -48928,7 +48934,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="1006" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1006" s="2">
         <v>7</v>
       </c>
@@ -48982,7 +48988,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="1007" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1007" s="2">
         <v>7</v>
       </c>
@@ -49036,7 +49042,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="1008" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1008" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1008" s="2">
         <v>7</v>
       </c>
@@ -49090,7 +49096,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="1009" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1009" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1009" s="2">
         <v>7</v>
       </c>
@@ -49144,7 +49150,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="1010" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1010" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1010" s="2">
         <v>7</v>
       </c>
@@ -49198,7 +49204,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="1011" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1011" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1011" s="2">
         <v>7</v>
       </c>
@@ -49252,7 +49258,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="1012" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1012" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1012" s="2">
         <v>9</v>
       </c>
@@ -49306,7 +49312,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="1013" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1013" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1013" s="2">
         <v>9</v>
       </c>
@@ -49360,7 +49366,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="1014" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1014" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1014" s="2">
         <v>9</v>
       </c>
@@ -49414,7 +49420,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="1015" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1015" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1015" s="2">
         <v>9</v>
       </c>
@@ -49468,7 +49474,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="1016" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1016" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1016" s="2">
         <v>9</v>
       </c>
@@ -49522,7 +49528,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="1017" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1017" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1017" s="2">
         <v>9</v>
       </c>
@@ -49576,7 +49582,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="1018" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1018" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1018" s="2">
         <v>9</v>
       </c>
@@ -49630,7 +49636,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="1019" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1019" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1019" s="2">
         <v>9</v>
       </c>
@@ -49684,7 +49690,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="1020" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1020" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1020" s="2">
         <v>1</v>
       </c>
@@ -49738,7 +49744,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="1021" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1021" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1021" s="2">
         <v>1</v>
       </c>
@@ -49792,7 +49798,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="1022" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1022" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1022" s="2">
         <v>1</v>
       </c>
@@ -49846,7 +49852,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="1023" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1023" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1023" s="2">
         <v>1</v>
       </c>
@@ -49900,7 +49906,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="1024" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1024" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1024" s="2">
         <v>1</v>
       </c>
@@ -49954,7 +49960,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="1025" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1025" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1025" s="2">
         <v>3</v>
       </c>
@@ -50008,7 +50014,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="1026" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1026" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1026" s="2">
         <v>3</v>
       </c>
@@ -50062,7 +50068,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="1027" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1027" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1027" s="2">
         <v>3</v>
       </c>
@@ -50116,7 +50122,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="1028" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1028" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1028" s="2">
         <v>3</v>
       </c>
@@ -50170,7 +50176,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="1029" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1029" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1029" s="2">
         <v>3</v>
       </c>
@@ -50224,7 +50230,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="1030" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1030" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1030" s="2">
         <v>3</v>
       </c>
@@ -50278,7 +50284,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="1031" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1031" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1031" s="2">
         <v>3</v>
       </c>
@@ -50332,7 +50338,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="1032" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1032" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1032" s="2">
         <v>3</v>
       </c>
@@ -50386,7 +50392,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="1033" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1033" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1033" s="2">
         <v>5</v>
       </c>
@@ -50440,7 +50446,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="1034" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1034" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1034" s="2">
         <v>5</v>
       </c>
@@ -50494,7 +50500,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="1035" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1035" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1035" s="2">
         <v>5</v>
       </c>
@@ -50548,7 +50554,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="1036" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1036" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1036" s="2">
         <v>5</v>
       </c>
@@ -50602,7 +50608,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="1037" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1037" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1037" s="2">
         <v>5</v>
       </c>
@@ -50656,7 +50662,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="1038" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1038" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1038" s="2">
         <v>5</v>
       </c>
@@ -50710,7 +50716,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="1039" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1039" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1039" s="2">
         <v>7</v>
       </c>
@@ -50764,7 +50770,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="1040" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1040" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1040" s="2">
         <v>7</v>
       </c>
@@ -50818,7 +50824,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="1041" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1041" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1041" s="2">
         <v>7</v>
       </c>
@@ -50872,7 +50878,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="1042" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1042" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1042" s="2">
         <v>7</v>
       </c>
@@ -50926,7 +50932,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="1043" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1043" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1043" s="2">
         <v>7</v>
       </c>
@@ -50980,7 +50986,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="1044" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1044" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1044" s="2">
         <v>1</v>
       </c>
@@ -51034,7 +51040,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="1045" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1045" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1045" s="2">
         <v>1</v>
       </c>
@@ -51088,7 +51094,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="1046" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1046" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1046" s="2">
         <v>3</v>
       </c>
@@ -51142,7 +51148,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="1047" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1047" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1047" s="2">
         <v>3</v>
       </c>
@@ -51196,7 +51202,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="1048" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1048" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1048" s="4">
         <v>1</v>
       </c>
@@ -51250,7 +51256,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="1049" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1049" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1049" s="4">
         <v>1</v>
       </c>
@@ -51304,7 +51310,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="1050" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1050" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1050" s="4">
         <v>1</v>
       </c>
@@ -51358,7 +51364,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="1051" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1051" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1051" s="4">
         <v>1</v>
       </c>
@@ -51412,7 +51418,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="1052" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1052" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1052" s="4">
         <v>1</v>
       </c>
@@ -51466,7 +51472,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="1053" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1053" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1053" s="4">
         <v>1</v>
       </c>
@@ -51520,7 +51526,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="1054" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1054" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1054" s="4">
         <v>1</v>
       </c>
@@ -51574,7 +51580,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="1055" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1055" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1055" s="6">
         <v>1</v>
       </c>
